--- a/resultados modelos.xlsx
+++ b/resultados modelos.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Dropbox\Estadistica\Estadistica Bayesiana\Trabajo Final Bayesiana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Dropbox\Estadistica\Estadistica Bayesiana\Trabajo Final Bayesiana\TrabajoFinalBayesiana\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5196" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5196"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Modelos" sheetId="1" r:id="rId1"/>
-    <sheet name="Estimaciones mod6" sheetId="2" r:id="rId2"/>
+    <sheet name="Modelos Predicciones" sheetId="3" r:id="rId2"/>
+    <sheet name="Estimaciones mod6" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Modelo</t>
   </si>
@@ -189,6 +190,9 @@
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla5. Estimacion de los coeficientes </t>
   </si>
 </sst>
 </file>
@@ -196,7 +200,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -321,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -342,11 +346,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -360,7 +361,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -378,31 +379,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -432,6 +415,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1061,128 +1068,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S9"/>
+  <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="21"/>
+    <col min="1" max="1" width="11.5546875" style="20"/>
     <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="2" customWidth="1"/>
     <col min="4" max="6" width="8.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" style="3" customWidth="1"/>
     <col min="9" max="12" width="8.88671875" style="3" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="3" customWidth="1"/>
-    <col min="15" max="19" width="8.88671875" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="11.5546875" style="21"/>
+    <col min="14" max="16384" width="11.5546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="2:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="25" t="s">
+      <c r="H2" s="39"/>
+      <c r="I2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="10" t="s">
+    </row>
+    <row r="3" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-    </row>
-    <row r="4" spans="2:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="36"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1213,308 +1174,194 @@
       <c r="M4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0.62119999999999997</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0.78680000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" s="22" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+    </row>
+    <row r="5" spans="2:13" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
         <v>2E-3</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12">
         <v>13000</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>3000</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>10</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>16983.099999999999</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0.62019999999999997</v>
-      </c>
-      <c r="P5" s="14">
-        <v>0.63190000000000002</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="R5" s="14">
-        <v>0.42620000000000002</v>
-      </c>
-      <c r="S5" s="14">
-        <v>0.78680000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+    </row>
+    <row r="6" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>1</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
         <v>2E-3</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>13000</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>3000</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>10</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <v>17154.68</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0.62</v>
-      </c>
-      <c r="P6" s="14">
-        <v>0.63319999999999999</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>0.61409999999999998</v>
-      </c>
-      <c r="R6" s="14">
-        <v>0.42620000000000002</v>
-      </c>
-      <c r="S6" s="14">
-        <v>0.78720000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" s="22" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+    </row>
+    <row r="7" spans="2:13" s="21" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
         <v>2E-3</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>13000</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>3000</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>10</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>17548.53</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0.62239999999999995</v>
-      </c>
-      <c r="P7" s="14">
-        <v>0.62939999999999996</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>0.61929999999999996</v>
-      </c>
-      <c r="R7" s="14">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="S7" s="14">
-        <v>0.78680000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" s="22" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+    </row>
+    <row r="8" spans="2:13" s="21" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>13000</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>3000</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>10</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="12">
         <v>17464.59</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0.62080000000000002</v>
-      </c>
-      <c r="P8" s="14">
-        <v>0.63129999999999997</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>0.61609999999999998</v>
-      </c>
-      <c r="R8" s="14">
-        <v>0.42670000000000002</v>
-      </c>
-      <c r="S8" s="14">
-        <v>0.78680000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" s="22" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+    </row>
+    <row r="9" spans="2:13" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>1</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>30000</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <v>3000</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="18">
         <v>20</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="18">
         <v>17462.89</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="O9" s="20">
-        <v>0.621</v>
-      </c>
-      <c r="P9" s="20">
-        <v>0.62939999999999996</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>0.61729999999999996</v>
-      </c>
-      <c r="R9" s="20">
-        <v>0.42670000000000002</v>
-      </c>
-      <c r="S9" s="20">
-        <v>0.7863</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
+  <mergeCells count="9">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1523,330 +1370,570 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H13"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="20"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
+    <col min="5" max="9" width="8.88671875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="2:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.78680000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.63190000000000002</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.78680000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.62</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.63319999999999999</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.61409999999999998</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.78720000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.62239999999999995</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.62939999999999996</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.61929999999999996</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.78680000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.62080000000000002</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.61609999999999998</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.78680000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.621</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.62939999999999996</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0.7863</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="30"/>
-    <col min="3" max="3" width="12.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5546875" style="31"/>
-    <col min="6" max="16384" width="11.5546875" style="30"/>
+    <col min="1" max="2" width="11.5546875" style="23"/>
+    <col min="3" max="3" width="12.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875" style="24"/>
+    <col min="6" max="16384" width="11.5546875" style="23"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="29">
         <v>-2.3350499999999998</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="29">
         <v>-2.8380299999999998</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="29">
         <v>-1.88388</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="32">
         <f>+EXP(C3)</f>
         <v>9.6805642123344984E-2</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="32">
         <f>+EXP(D3)</f>
         <v>5.8540877973018768E-2</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="32">
         <f>+EXP(E3)</f>
         <v>0.15199920323873908</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="29">
         <v>0.41077999999999998</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="29">
         <v>0.31244</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="29">
         <v>0.52192000000000005</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="30">
         <f t="shared" ref="F4:F13" si="0">+EXP(C4)</f>
         <v>1.5079935614784123</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="30">
         <f t="shared" ref="G4:G13" si="1">+EXP(D4)</f>
         <v>1.3667559333575849</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="30">
         <f t="shared" ref="H4:H13" si="2">+EXP(E4)</f>
         <v>1.6852602450848255</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="29">
         <v>0.43262</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="29">
         <v>0.29694999999999999</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="29">
         <v>0.59723000000000004</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="30">
         <f t="shared" si="0"/>
         <v>1.5412904190461296</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="30">
         <f t="shared" si="1"/>
         <v>1.3457480103653663</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="30">
         <f t="shared" si="2"/>
         <v>1.8170785153310345</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="29">
         <v>0.96326999999999996</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="29">
         <v>0.29270000000000002</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="29">
         <v>1.67699</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="30">
         <f t="shared" si="0"/>
         <v>2.6202506994282739</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="30">
         <f t="shared" si="1"/>
         <v>1.3400407179084459</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="30">
         <f t="shared" si="2"/>
         <v>5.3494299295168073</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="29">
         <v>0.62385999999999997</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="29">
         <v>-0.66117000000000004</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="29">
         <v>2.0447700000000002</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="30">
         <f t="shared" si="0"/>
         <v>1.8661173705657894</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="30">
         <f t="shared" si="1"/>
         <v>0.5162469720513142</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="30">
         <f t="shared" si="2"/>
         <v>7.7273810358667339</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="29">
         <v>0.32080999999999998</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="29">
         <v>-8.4830000000000003E-2</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="29">
         <v>0.75890000000000002</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="30">
         <f t="shared" si="0"/>
         <v>1.3782436897138339</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="30">
         <f t="shared" si="1"/>
         <v>0.9186684447630602</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="30">
         <f t="shared" si="2"/>
         <v>2.1359254098371752</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="29">
         <v>0.44077</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="29">
         <v>3.4320000000000003E-2</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="29">
         <v>0.85160000000000002</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="30">
         <f t="shared" si="0"/>
         <v>1.5539032634878112</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="30">
         <f t="shared" si="1"/>
         <v>1.0349157267786535</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="30">
         <f t="shared" si="2"/>
         <v>2.3433932832348812</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="29">
         <v>0.66461999999999999</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="29">
         <v>0.26175999999999999</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="29">
         <v>1.08832</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="30">
         <f t="shared" si="0"/>
         <v>1.9437517553131574</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="30">
         <f t="shared" si="1"/>
         <v>1.2992146934825692</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="30">
         <f t="shared" si="2"/>
         <v>2.9692814870672319</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="29">
         <v>0.86185999999999996</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="29">
         <v>0.45562000000000002</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="29">
         <v>1.29301</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="30">
         <f t="shared" si="0"/>
         <v>2.3675602629270678</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="30">
         <f t="shared" si="1"/>
         <v>1.577150913534614</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="30">
         <f t="shared" si="2"/>
         <v>3.6437377165143547</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="30">
         <v>0.15085999999999999</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="30">
         <v>0.13875999999999999</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="30">
         <v>0.16449</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="30">
         <f t="shared" si="0"/>
         <v>1.1628338499465241</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="30">
         <f t="shared" si="1"/>
         <v>1.1488483433117309</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="30">
         <f t="shared" si="2"/>
         <v>1.1787917815748516</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="31">
         <v>-2.0129999999999999E-2</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="31">
         <v>-2.376E-2</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="31">
         <v>-1.6469999999999999E-2</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="31">
         <f t="shared" si="0"/>
         <v>0.9800712557615453</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="31">
         <f t="shared" si="1"/>
         <v>0.9765200464475291</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="31">
         <f t="shared" si="2"/>
         <v>0.9836648888946945</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/resultados modelos.xlsx
+++ b/resultados modelos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>Modelo</t>
   </si>
@@ -46,12 +46,6 @@
     <t>PN</t>
   </si>
   <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
     <t>Modelo1</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
     <t>Modelo2</t>
   </si>
   <si>
@@ -101,12 +92,6 @@
   </si>
   <si>
     <t>priori plana informativa para betas</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>mu</t>
@@ -193,6 +178,33 @@
   </si>
   <si>
     <t xml:space="preserve">Tabla5. Estimacion de los coeficientes </t>
+  </si>
+  <si>
+    <t>n u</t>
+  </si>
+  <si>
+    <t>R (A priori Variancia)</t>
+  </si>
+  <si>
+    <t>B (A priori Media)</t>
+  </si>
+  <si>
+    <t>Priori plana no informativa</t>
+  </si>
+  <si>
+    <t>I*1e+10</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Parámetros de modelos</t>
+  </si>
+  <si>
+    <t>Tabla 3</t>
+  </si>
+  <si>
+    <t>Tabla 4</t>
   </si>
 </sst>
 </file>
@@ -248,7 +260,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -423,23 +441,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,87 +1095,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M9"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="20"/>
     <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24" style="3" customWidth="1"/>
     <col min="9" max="12" width="8.88671875" style="3" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="11.5546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-    </row>
-    <row r="4" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -1157,30 +1164,22 @@
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6">
-        <v>13000</v>
-      </c>
-      <c r="J4" s="6">
-        <v>3000</v>
-      </c>
-      <c r="K4" s="6">
-        <v>10</v>
-      </c>
-      <c r="L4" s="7">
-        <v>17500.64</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="G4" s="37">
+        <v>0</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
@@ -1189,30 +1188,19 @@
       <c r="F5" s="12">
         <v>2E-3</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12">
-        <v>13000</v>
-      </c>
-      <c r="J5" s="12">
-        <v>3000</v>
-      </c>
-      <c r="K5" s="12">
-        <v>10</v>
-      </c>
-      <c r="L5" s="12">
-        <v>16983.099999999999</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="G5" s="37">
+        <v>0</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="12">
         <v>1</v>
@@ -1222,33 +1210,18 @@
         <v>2E-3</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="12">
-        <v>13000</v>
-      </c>
-      <c r="J6" s="12">
-        <v>3000</v>
-      </c>
-      <c r="K6" s="12">
-        <v>10</v>
-      </c>
-      <c r="L6" s="12">
-        <v>17154.68</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" s="21" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="21" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
@@ -1258,33 +1231,18 @@
         <v>2E-3</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="12">
-        <v>13000</v>
-      </c>
-      <c r="J7" s="12">
-        <v>3000</v>
-      </c>
-      <c r="K7" s="12">
-        <v>10</v>
-      </c>
-      <c r="L7" s="12">
-        <v>17548.53</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" s="21" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
@@ -1292,35 +1250,22 @@
       <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
       <c r="G8" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="12">
-        <v>13000</v>
-      </c>
-      <c r="J8" s="12">
-        <v>3000</v>
-      </c>
-      <c r="K8" s="12">
-        <v>10</v>
-      </c>
-      <c r="L8" s="12">
-        <v>17464.59</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
@@ -1328,40 +1273,211 @@
       <c r="E9" s="18">
         <v>1</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="40">
+        <v>0</v>
+      </c>
       <c r="G9" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="6">
+        <v>13000</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
+      <c r="G15" s="7">
+        <v>17500.64</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12">
+        <v>13000</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="12">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12">
+        <v>16983.099999999999</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="12">
+        <v>13000</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="12">
+        <v>10</v>
+      </c>
+      <c r="G17" s="12">
+        <v>17154.68</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="12">
+        <v>13000</v>
+      </c>
+      <c r="E18" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="12">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12">
+        <v>17548.53</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="12">
+        <v>13000</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F19" s="12">
+        <v>10</v>
+      </c>
+      <c r="G19" s="12">
+        <v>17464.59</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="18">
         <v>30000</v>
       </c>
-      <c r="J9" s="18">
+      <c r="E20" s="18">
         <v>3000</v>
       </c>
-      <c r="K9" s="18">
+      <c r="F20" s="18">
         <v>20</v>
       </c>
-      <c r="L9" s="18">
+      <c r="G20" s="18">
         <v>17462.89</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>35</v>
+      <c r="H20" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L2:L3"/>
+  <mergeCells count="10">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1370,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1382,212 +1498,177 @@
     <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
-    <col min="5" max="9" width="8.88671875" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="20"/>
+    <col min="5" max="7" width="8.88671875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="D3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33" t="s">
+    </row>
+    <row r="4" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="2:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="D5" s="7">
         <v>0.3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E5" s="8">
         <v>0.62119999999999997</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F5" s="8">
         <v>0.63060000000000005</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G5" s="8">
         <v>0.61699999999999999</v>
       </c>
-      <c r="H4" s="8">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.78680000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0.62019999999999997</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0.63190000000000002</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0.42620000000000002</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0.78680000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:7" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="12">
         <v>0.3</v>
       </c>
       <c r="E6" s="13">
-        <v>0.62</v>
+        <v>0.62019999999999997</v>
       </c>
       <c r="F6" s="13">
-        <v>0.63319999999999999</v>
+        <v>0.63190000000000002</v>
       </c>
       <c r="G6" s="13">
-        <v>0.61409999999999998</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.42620000000000002</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.78720000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D7" s="12">
         <v>0.3</v>
       </c>
       <c r="E7" s="13">
-        <v>0.62239999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="F7" s="13">
-        <v>0.62939999999999996</v>
+        <v>0.63319999999999999</v>
       </c>
       <c r="G7" s="13">
-        <v>0.61929999999999996</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.78680000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+        <v>0.61409999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="D8" s="12">
         <v>0.3</v>
       </c>
       <c r="E8" s="13">
+        <v>0.62239999999999995</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.62939999999999996</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.61929999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="13">
         <v>0.62080000000000002</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>0.63129999999999997</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>0.61609999999999998</v>
       </c>
-      <c r="H8" s="13">
-        <v>0.42670000000000002</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0.78680000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="18">
+    </row>
+    <row r="10" spans="2:7" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="18">
         <v>0.3</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E10" s="19">
         <v>0.621</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F10" s="19">
         <v>0.62939999999999996</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G10" s="19">
         <v>0.61729999999999996</v>
       </c>
-      <c r="H9" s="19">
-        <v>0.42670000000000002</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0.7863</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+  <mergeCells count="7">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1611,42 +1692,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" s="29">
         <v>-2.3350499999999998</v>
@@ -1672,7 +1753,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" s="29">
         <v>0.41077999999999998</v>
@@ -1698,7 +1779,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="29">
         <v>0.43262</v>
@@ -1724,7 +1805,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="29">
         <v>0.96326999999999996</v>
@@ -1750,7 +1831,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" s="29">
         <v>0.62385999999999997</v>
@@ -1776,7 +1857,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" s="29">
         <v>0.32080999999999998</v>
@@ -1802,7 +1883,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" s="29">
         <v>0.44077</v>
@@ -1828,7 +1909,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" s="29">
         <v>0.66461999999999999</v>
@@ -1854,7 +1935,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" s="29">
         <v>0.86185999999999996</v>
@@ -1880,7 +1961,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C12" s="30">
         <v>0.15085999999999999</v>
@@ -1906,7 +1987,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C13" s="31">
         <v>-2.0129999999999999E-2</v>

--- a/resultados modelos.xlsx
+++ b/resultados modelos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>Modelo</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Modelo1</t>
   </si>
   <si>
-    <t>priori planas no informativas</t>
-  </si>
-  <si>
     <t>burnin</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t>Pto Corte</t>
   </si>
   <si>
-    <t>priori plana no informativa para los betas y gamma para el error</t>
-  </si>
-  <si>
-    <t>priori plana informativa para betas</t>
-  </si>
-  <si>
     <t>mu</t>
   </si>
   <si>
@@ -101,19 +92,6 @@
   </si>
   <si>
     <t>diag(11) * (1 + pi^2/3))</t>
-  </si>
-  <si>
-    <t>priori de Gelman para betas</t>
-  </si>
-  <si>
-    <t>gelman.prior(
-    ~ Producto + MedioPagoPlan + Antiguedad + edad,
-    data = train_datos,
-    scale = sqrt(pi ^ 2 / 3 + 1),
-    intercept = T)</t>
-  </si>
-  <si>
-    <t>priori plana informativa para betas y errores fijados en 1</t>
   </si>
   <si>
     <t>fix</t>
@@ -189,22 +167,31 @@
     <t>B (A priori Media)</t>
   </si>
   <si>
-    <t>Priori plana no informativa</t>
-  </si>
-  <si>
     <t>I*1e+10</t>
   </si>
   <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>Parámetros de modelos</t>
   </si>
   <si>
-    <t>Tabla 3</t>
-  </si>
-  <si>
     <t>Tabla 4</t>
+  </si>
+  <si>
+    <t>Priori plana informativa para media</t>
+  </si>
+  <si>
+    <t>Priori plana no informativa para media</t>
+  </si>
+  <si>
+    <t>Priori de Gelman para media</t>
+  </si>
+  <si>
+    <t>gelman.prior con scale = sqrt(pi ^ 2 / 3 + 1)</t>
+  </si>
+  <si>
+    <t>Priori plana informativa para media y variancia fijados en 1</t>
+  </si>
+  <si>
+    <t>Priori plana no informativa para media y gamma para la variancia</t>
   </si>
 </sst>
 </file>
@@ -260,7 +247,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,12 +257,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,10 +293,19 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -323,27 +313,18 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="2"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -370,36 +351,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -432,41 +383,98 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,67 +1103,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="20"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="10"/>
+    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="24" style="3" customWidth="1"/>
-    <col min="9" max="12" width="8.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="3" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" style="3" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="20"/>
+    <col min="14" max="16384" width="11.5546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="41"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -1164,176 +1187,182 @@
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="6"/>
+      <c r="H4" s="30">
         <v>0</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="I4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="2:14" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
+        <v>2E-3</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34">
+        <v>2E-3</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="B7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="34">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
+        <v>2E-3</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="D8" s="34">
+        <v>1</v>
+      </c>
+      <c r="E8" s="34">
+        <v>1</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12">
+      <c r="I8" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="39">
         <v>1</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="G5" s="37">
+      <c r="E9" s="39">
+        <v>1</v>
+      </c>
+      <c r="F9" s="39">
         <v>0</v>
       </c>
-      <c r="H5" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="G9" s="37"/>
+      <c r="H9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="21" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="39">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="D13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="40">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="43" t="s">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="6">
         <v>13000</v>
@@ -1348,136 +1377,137 @@
         <v>17500.64</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="34">
+        <v>13000</v>
+      </c>
+      <c r="E16" s="34">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="34">
+        <v>10</v>
+      </c>
+      <c r="G16" s="34">
+        <v>16983.099999999999</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="31">
+        <v>13000</v>
+      </c>
+      <c r="E17" s="31">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="31">
+        <v>10</v>
+      </c>
+      <c r="G17" s="31">
+        <v>17154.68</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="34">
+        <v>13000</v>
+      </c>
+      <c r="E18" s="34">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="34">
+        <v>10</v>
+      </c>
+      <c r="G18" s="34">
+        <v>17548.53</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="34">
+        <v>13000</v>
+      </c>
+      <c r="E19" s="34">
+        <v>3000</v>
+      </c>
+      <c r="F19" s="34">
+        <v>10</v>
+      </c>
+      <c r="G19" s="34">
+        <v>17464.59</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="37">
+        <v>30000</v>
+      </c>
+      <c r="E20" s="37">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="37">
         <v>20</v>
       </c>
-      <c r="D16" s="12">
-        <v>13000</v>
-      </c>
-      <c r="E16" s="12">
-        <v>3000</v>
-      </c>
-      <c r="F16" s="12">
-        <v>10</v>
-      </c>
-      <c r="G16" s="12">
-        <v>16983.099999999999</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="12">
-        <v>13000</v>
-      </c>
-      <c r="E17" s="12">
-        <v>3000</v>
-      </c>
-      <c r="F17" s="12">
-        <v>10</v>
-      </c>
-      <c r="G17" s="12">
-        <v>17154.68</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="12">
-        <v>13000</v>
-      </c>
-      <c r="E18" s="12">
-        <v>3000</v>
-      </c>
-      <c r="F18" s="12">
-        <v>10</v>
-      </c>
-      <c r="G18" s="12">
-        <v>17548.53</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="12">
-        <v>13000</v>
-      </c>
-      <c r="E19" s="12">
-        <v>3000</v>
-      </c>
-      <c r="F19" s="12">
-        <v>10</v>
-      </c>
-      <c r="G19" s="12">
-        <v>17464.59</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="18">
-        <v>30000</v>
-      </c>
-      <c r="E20" s="18">
-        <v>3000</v>
-      </c>
-      <c r="F20" s="18">
-        <v>20</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="G20" s="37">
         <v>17462.89</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>30</v>
+      <c r="H20" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B12:H12"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1489,63 +1519,63 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E5" sqref="E5:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="20"/>
+    <col min="1" max="1" width="11.5546875" style="10"/>
     <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
     <col min="5" max="7" width="8.88671875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="20"/>
+    <col min="8" max="16384" width="11.5546875" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7">
         <v>0.3</v>
@@ -1560,103 +1590,103 @@
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="50">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="F6" s="50">
+        <v>0.63190000000000002</v>
+      </c>
+      <c r="G6" s="50">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C7" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="34">
         <v>0.3</v>
       </c>
-      <c r="E6" s="13">
-        <v>0.62019999999999997</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.63190000000000002</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.61499999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="E7" s="50">
+        <v>0.62</v>
+      </c>
+      <c r="F7" s="50">
+        <v>0.63319999999999999</v>
+      </c>
+      <c r="G7" s="50">
+        <v>0.61409999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C8" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="31">
         <v>0.3</v>
       </c>
-      <c r="E7" s="13">
-        <v>0.62</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.63319999999999999</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.61409999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="E8" s="51">
+        <v>0.62239999999999995</v>
+      </c>
+      <c r="F8" s="51">
+        <v>0.62939999999999996</v>
+      </c>
+      <c r="G8" s="51">
+        <v>0.61929999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C9" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="34">
         <v>0.3</v>
       </c>
-      <c r="E8" s="13">
-        <v>0.62239999999999995</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E9" s="50">
+        <v>0.62080000000000002</v>
+      </c>
+      <c r="F9" s="50">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="G9" s="50">
+        <v>0.61609999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="52">
+        <v>0.621</v>
+      </c>
+      <c r="F10" s="52">
         <v>0.62939999999999996</v>
       </c>
-      <c r="G8" s="13">
-        <v>0.61929999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0.62080000000000002</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0.63129999999999997</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0.61609999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="21" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0.621</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0.62939999999999996</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="G10" s="52">
         <v>0.61729999999999996</v>
       </c>
     </row>
@@ -1685,328 +1715,328 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="23"/>
-    <col min="3" max="3" width="12.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5546875" style="24"/>
-    <col min="6" max="16384" width="11.5546875" style="23"/>
+    <col min="1" max="2" width="11.5546875" style="13"/>
+    <col min="3" max="3" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875" style="14"/>
+    <col min="6" max="16384" width="11.5546875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>44</v>
+      <c r="B2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="B3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="19">
         <v>-2.3350499999999998</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="19">
         <v>-2.8380299999999998</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="19">
         <v>-1.88388</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="22">
         <f>+EXP(C3)</f>
         <v>9.6805642123344984E-2</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="22">
         <f>+EXP(D3)</f>
         <v>5.8540877973018768E-2</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="22">
         <f>+EXP(E3)</f>
         <v>0.15199920323873908</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="B4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="19">
         <v>0.41077999999999998</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="19">
         <v>0.31244</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="19">
         <v>0.52192000000000005</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="20">
         <f t="shared" ref="F4:F13" si="0">+EXP(C4)</f>
         <v>1.5079935614784123</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="20">
         <f t="shared" ref="G4:G13" si="1">+EXP(D4)</f>
         <v>1.3667559333575849</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="20">
         <f t="shared" ref="H4:H13" si="2">+EXP(E4)</f>
         <v>1.6852602450848255</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="19">
         <v>0.43262</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="19">
         <v>0.29694999999999999</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="19">
         <v>0.59723000000000004</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="20">
         <f t="shared" si="0"/>
         <v>1.5412904190461296</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="20">
         <f t="shared" si="1"/>
         <v>1.3457480103653663</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="20">
         <f t="shared" si="2"/>
         <v>1.8170785153310345</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="19">
         <v>0.96326999999999996</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="19">
         <v>0.29270000000000002</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="19">
         <v>1.67699</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
         <v>2.6202506994282739</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="20">
         <f t="shared" si="1"/>
         <v>1.3400407179084459</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="20">
         <f t="shared" si="2"/>
         <v>5.3494299295168073</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="29">
+      <c r="B7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="19">
         <v>0.62385999999999997</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="19">
         <v>-0.66117000000000004</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="19">
         <v>2.0447700000000002</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>1.8661173705657894</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="20">
         <f t="shared" si="1"/>
         <v>0.5162469720513142</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="20">
         <f t="shared" si="2"/>
         <v>7.7273810358667339</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="B8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="19">
         <v>0.32080999999999998</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="19">
         <v>-8.4830000000000003E-2</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="19">
         <v>0.75890000000000002</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
         <v>1.3782436897138339</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="20">
         <f t="shared" si="1"/>
         <v>0.9186684447630602</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="20">
         <f t="shared" si="2"/>
         <v>2.1359254098371752</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="B9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="19">
         <v>0.44077</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="19">
         <v>3.4320000000000003E-2</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="19">
         <v>0.85160000000000002</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>1.5539032634878112</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
         <v>1.0349157267786535</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="20">
         <f t="shared" si="2"/>
         <v>2.3433932832348812</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="29">
+      <c r="B10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="19">
         <v>0.66461999999999999</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="19">
         <v>0.26175999999999999</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="19">
         <v>1.08832</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>1.9437517553131574</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="20">
         <f t="shared" si="1"/>
         <v>1.2992146934825692</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="20">
         <f t="shared" si="2"/>
         <v>2.9692814870672319</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="29">
+      <c r="B11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="19">
         <v>0.86185999999999996</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="19">
         <v>0.45562000000000002</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="19">
         <v>1.29301</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>2.3675602629270678</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="20">
         <f t="shared" si="1"/>
         <v>1.577150913534614</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="20">
         <f t="shared" si="2"/>
         <v>3.6437377165143547</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="30">
+      <c r="B12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="20">
         <v>0.15085999999999999</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="20">
         <v>0.13875999999999999</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="20">
         <v>0.16449</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>1.1628338499465241</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="20">
         <f t="shared" si="1"/>
         <v>1.1488483433117309</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="20">
         <f t="shared" si="2"/>
         <v>1.1787917815748516</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="31">
+      <c r="B13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="21">
         <v>-2.0129999999999999E-2</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="21">
         <v>-2.376E-2</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="21">
         <v>-1.6469999999999999E-2</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="21">
         <f t="shared" si="0"/>
         <v>0.9800712557615453</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="21">
         <f t="shared" si="1"/>
         <v>0.9765200464475291</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="21">
         <f t="shared" si="2"/>
         <v>0.9836648888946945</v>
       </c>
